--- a/data/03018.xlsx
+++ b/data/03018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5353,6 +5353,43 @@
         </is>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>03018</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>SUPREME</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03018.xlsx
+++ b/data/03018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5390,6 +5390,43 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>03018</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SUPREME</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03018.xlsx
+++ b/data/03018.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5427,6 +5427,43 @@
         </is>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>03018</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>SUPREME</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
